--- a/Документация/МФЦ формат.xlsx
+++ b/Документация/МФЦ формат.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
   <si>
     <t>поле</t>
   </si>
@@ -33,19 +33,25 @@
     <t>Описание</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>fam</t>
   </si>
   <si>
     <t>varchar(40)</t>
   </si>
   <si>
-    <t>person/fam</t>
-  </si>
-  <si>
-    <t>person_old/fam</t>
-  </si>
-  <si>
-    <t>vizit\rel\fam</t>
+    <t>im</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>dr</t>
   </si>
 </sst>
 </file>
@@ -100,13 +106,21 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
@@ -152,10 +166,8 @@
           <t>action_type</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -180,10 +192,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="67.5" defaultRowHeight="15"/>
@@ -201,15 +213,15 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Застрахованный</t>
         </is>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Представитель</t>
@@ -219,7 +231,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>новые</t>
@@ -233,89 +245,145 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>person/</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>person_old/</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>vizit/rel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>im</t>
-        </is>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>person/im</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>person_old/im</t>
-        </is>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ot</t>
-        </is>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Отчество</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>person/ot</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>person_old/ot</t>
-        </is>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Пол</t>
+        </is>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pol</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
